--- a/documents/teacher/Bio.xlsx
+++ b/documents/teacher/Bio.xlsx
@@ -366,7 +366,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -383,7 +383,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -403,14 +403,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -420,7 +420,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -447,7 +447,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -457,14 +457,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -479,34 +479,34 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -518,66 +518,66 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">

--- a/documents/teacher/Bio.xlsx
+++ b/documents/teacher/Bio.xlsx
@@ -376,61 +376,61 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -457,41 +457,41 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -506,7 +506,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -518,12 +518,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -538,19 +538,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -560,12 +560,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -592,7 +592,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>

--- a/documents/teacher/Bio.xlsx
+++ b/documents/teacher/Bio.xlsx
@@ -366,17 +366,17 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -403,19 +403,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -425,12 +425,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>
@@ -457,7 +457,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -474,12 +474,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -533,7 +533,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -545,14 +545,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>0</t>
@@ -560,7 +560,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">

--- a/documents/teacher/Bio.xlsx
+++ b/documents/teacher/Bio.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -366,24 +366,24 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -398,7 +398,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -410,12 +410,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -447,7 +447,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -464,7 +464,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -474,7 +474,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -496,12 +496,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -518,12 +518,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -533,7 +533,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -565,7 +565,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -591,6 +591,33 @@
         </is>
       </c>
       <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
